--- a/data/trans_dic/iP16_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 50,65</t>
+          <t>16,11; 48,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 25,56</t>
+          <t>3,12; 29,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,23</t>
+          <t>0,0; 48,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 60,16</t>
+          <t>17,55; 59,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 50,88</t>
+          <t>18,86; 52,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,38; 37,0</t>
+          <t>9,8; 36,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,93</t>
+          <t>0,0; 18,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 45,34</t>
+          <t>3,87; 43,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,6; 44,32</t>
+          <t>21,6; 43,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 28,33</t>
+          <t>8,91; 27,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 22,4</t>
+          <t>2,28; 22,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 46,83</t>
+          <t>15,58; 48,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,91; 51,14</t>
+          <t>33,58; 50,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 21,58</t>
+          <t>9,62; 20,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 21,72</t>
+          <t>9,73; 22,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,35; 43,02</t>
+          <t>28,24; 43,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,57; 51,98</t>
+          <t>34,53; 51,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 26,97</t>
+          <t>11,95; 26,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 19,83</t>
+          <t>8,48; 20,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 40,38</t>
+          <t>23,69; 40,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,37; 48,82</t>
+          <t>36,37; 48,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 21,33</t>
+          <t>12,28; 21,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 19,18</t>
+          <t>10,44; 19,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,07; 39,6</t>
+          <t>27,95; 40,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,84; 54,0</t>
+          <t>27,35; 54,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 25,77</t>
+          <t>6,15; 26,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 21,34</t>
+          <t>2,38; 20,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,64; 43,79</t>
+          <t>18,99; 43,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 46,74</t>
+          <t>14,04; 44,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 26,17</t>
+          <t>5,77; 24,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 29,0</t>
+          <t>4,96; 28,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,14; 52,8</t>
+          <t>27,8; 51,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 45,37</t>
+          <t>25,4; 44,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 21,6</t>
+          <t>8,13; 21,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 20,3</t>
+          <t>5,79; 20,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,54; 44,11</t>
+          <t>26,7; 44,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,12; 46,62</t>
+          <t>33,21; 46,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 18,81</t>
+          <t>9,89; 18,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,9</t>
+          <t>9,39; 19,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,69; 40,48</t>
+          <t>28,48; 40,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,05; 45,45</t>
+          <t>31,35; 45,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,42; 23,49</t>
+          <t>13,2; 23,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,12</t>
+          <t>8,29; 17,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,1; 39,89</t>
+          <t>26,2; 39,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,41; 43,63</t>
+          <t>34,53; 43,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 19,39</t>
+          <t>12,63; 19,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,79</t>
+          <t>10,14; 16,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,12; 38,75</t>
+          <t>29,24; 38,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP16_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,99%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>18,03; 52,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,84; 37,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 37,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,2; 49,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 28,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,25; 55,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>21,48; 44,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,05; 28,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 21,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,76; 42,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>30,72%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,11; 48,86</t>
+          <t>33,87; 50,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 29,47</t>
+          <t>12,23; 27,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,44</t>
+          <t>8,27; 20,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 59,05</t>
+          <t>12,18; 36,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,86; 52,38</t>
+          <t>34,38; 50,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 36,98</t>
+          <t>9,52; 21,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,3</t>
+          <t>9,11; 22,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 43,88</t>
+          <t>27,44; 43,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,6; 43,67</t>
+          <t>36,58; 48,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 27,37</t>
+          <t>12,06; 20,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 22,97</t>
+          <t>10,48; 19,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 48,11</t>
+          <t>21,78; 37,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>34,21%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,58; 50,93</t>
+          <t>14,77; 43,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 20,78</t>
+          <t>6,35; 25,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 22,63</t>
+          <t>6,01; 29,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,24; 43,02</t>
+          <t>28,16; 52,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,53; 51,57</t>
+          <t>26,37; 53,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 26,8</t>
+          <t>6,75; 26,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 20,22</t>
+          <t>2,26; 20,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,69; 40,59</t>
+          <t>18,83; 43,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,37; 48,51</t>
+          <t>25,75; 45,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,64</t>
+          <t>7,33; 21,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 19,13</t>
+          <t>6,25; 20,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,95; 40,06</t>
+          <t>25,71; 44,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>38,26%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>39,99%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>14,21%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,14%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>30,15%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28,18%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>31,08%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,35; 54,61</t>
+          <t>31,22; 45,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 26,53</t>
+          <t>13,13; 23,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 20,45</t>
+          <t>8,02; 17,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 43,39</t>
+          <t>16,9; 36,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 44,26</t>
+          <t>33,6; 46,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 24,53</t>
+          <t>9,62; 18,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 28,27</t>
+          <t>9,34; 19,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,8; 51,98</t>
+          <t>28,11; 40,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 44,63</t>
+          <t>34,53; 44,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 21,52</t>
+          <t>12,48; 19,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 20,36</t>
+          <t>9,91; 17,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,7; 44,06</t>
+          <t>24,44; 36,55</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>39,79%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,78%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,79%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>34,13%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>38,26%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17,92%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>12,54%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>33,15%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>39,08%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>15,77%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>13,16%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>33,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>33,21; 46,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,89; 18,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 19,31</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>28,48; 40,5</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>31,35; 45,21</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>13,2; 23,25</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 17,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>26,2; 39,89</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>34,53; 43,54</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>12,63; 19,62</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>10,14; 16,88</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>29,24; 38,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
